--- a/doc/UI APIs.xlsx
+++ b/doc/UI APIs.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/den/Shden/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D180A8A6-A2A2-B946-9D9C-9E62D7AF6009}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E7D6F7-FD78-6A46-847E-C950891FB752}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16300" xr2:uid="{3AFEF2B3-E87E-7B48-8F22-52B7E245566F}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" xr2:uid="{3AFEF2B3-E87E-7B48-8F22-52B7E245566F}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="63">
   <si>
     <t>Electricity</t>
   </si>
@@ -166,6 +166,63 @@
   </si>
   <si>
     <t>naïve implementation</t>
+  </si>
+  <si>
+    <t>GET /PowerMeterData</t>
+  </si>
+  <si>
+    <t>{ period: days }</t>
+  </si>
+  <si>
+    <t>GET /PowerStatistics</t>
+  </si>
+  <si>
+    <t>{ by: h|d, period: days }</t>
+  </si>
+  <si>
+    <t>GET /PowerConsumption</t>
+  </si>
+  <si>
+    <t>{ /$arr_year/$arr_month/$arr_day/$arr_hour/$dep_year/$dep_month/$dep_day/$dep_hour }</t>
+  </si>
+  <si>
+    <t>GET /TempHistory</t>
+  </si>
+  <si>
+    <t>GET /HumidityHistory</t>
+  </si>
+  <si>
+    <t>GET /TempStatistics</t>
+  </si>
+  <si>
+    <t>GET /HouseStatus</t>
+  </si>
+  <si>
+    <t>PUT /HouseMode</t>
+  </si>
+  <si>
+    <t>{ mode: x }</t>
+  </si>
+  <si>
+    <t>PUT /Status</t>
+  </si>
+  <si>
+    <t>{ [name, status] }</t>
+  </si>
+  <si>
+    <t>GET /HeatingSchedule</t>
+  </si>
+  <si>
+    <t>PUT /HeatingSchedule</t>
+  </si>
+  <si>
+    <t>PUT /ResetHeatingSchedule</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Shutters</t>
   </si>
 </sst>
 </file>
@@ -296,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -321,6 +378,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -636,20 +696,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931FF64E-E045-0B4E-8611-E8D9550376D4}">
-  <dimension ref="A1:E34"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="52.83203125" customWidth="1"/>
     <col min="4" max="4" width="74.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -664,15 +724,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="11"/>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -682,8 +744,11 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -693,8 +758,14 @@
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -704,8 +775,14 @@
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -715,8 +792,9 @@
       <c r="C6" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -730,15 +808,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -748,8 +828,11 @@
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E9" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -759,8 +842,14 @@
       <c r="C10" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -770,8 +859,11 @@
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -781,8 +873,14 @@
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -795,8 +893,9 @@
       <c r="D13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -809,8 +908,9 @@
       <c r="D14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -820,8 +920,14 @@
       <c r="C15" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -831,8 +937,14 @@
       <c r="C16" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -845,8 +957,9 @@
       <c r="D17" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -856,8 +969,11 @@
       <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -867,8 +983,11 @@
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E19" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -881,8 +1000,14 @@
       <c r="D20" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -895,16 +1020,24 @@
       <c r="D21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
@@ -914,8 +1047,11 @@
       <c r="C23" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E23" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
@@ -925,16 +1061,24 @@
       <c r="C24" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>32</v>
       </c>
@@ -944,8 +1088,11 @@
       <c r="C26" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E26" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>33</v>
       </c>
@@ -955,16 +1102,24 @@
       <c r="C27" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E27" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
@@ -977,8 +1132,11 @@
       <c r="D29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E29" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
@@ -991,8 +1149,14 @@
       <c r="D30" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E30" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>36</v>
       </c>
@@ -1000,8 +1164,9 @@
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" s="9"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>32</v>
       </c>
@@ -1015,7 +1180,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>37</v>
       </c>
@@ -1029,7 +1194,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>38</v>
       </c>
@@ -1041,6 +1206,32 @@
       </c>
       <c r="D34" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/doc/UI APIs.xlsx
+++ b/doc/UI APIs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/den/Shden/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E7D6F7-FD78-6A46-847E-C950891FB752}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC9FC4F-3DEA-2A41-9965-4F4D5C4015D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16260" xr2:uid="{3AFEF2B3-E87E-7B48-8F22-52B7E245566F}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16080" xr2:uid="{3AFEF2B3-E87E-7B48-8F22-52B7E245566F}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="64">
   <si>
     <t>Electricity</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>Shutters</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -269,7 +272,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,6 +300,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -382,6 +391,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -696,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{931FF64E-E045-0B4E-8611-E8D9550376D4}">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1047,9 +1060,10 @@
       <c r="C23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="14" t="s">
         <v>53</v>
       </c>
+      <c r="F23" s="15"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
@@ -1061,10 +1075,10 @@
       <c r="C24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="15" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1234,6 +1248,11 @@
         <v>9</v>
       </c>
     </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>63</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
